--- a/Wine_Quality/outputs/train_90_test_10/depth_4/wq_train_90_test_10_depth_4_report.xlsx
+++ b/Wine_Quality/outputs/train_90_test_10/depth_4/wq_train_90_test_10_depth_4_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.359375</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8146853146853147</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9357429718875502</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8710280373831776</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>498</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5844155844155844</v>
+        <v>0.8166089965397924</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3515625</v>
+        <v>0.9477911646586346</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4390243902439024</v>
+        <v>0.8773234200743495</v>
       </c>
       <c r="E4" t="n">
-        <v>128</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7861538461538462</v>
+        <v>0.796923076923077</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7861538461538462</v>
+        <v>0.796923076923077</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7861538461538462</v>
+        <v>0.796923076923077</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7861538461538462</v>
+        <v>0.796923076923077</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4663669663669663</v>
+        <v>0.4851659618095605</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4291018239625168</v>
+        <v>0.4357220548862115</v>
       </c>
       <c r="D6" t="n">
-        <v>0.43668414254236</v>
+        <v>0.4457744733581165</v>
       </c>
       <c r="E6" t="n">
         <v>650</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7392592023361254</v>
+        <v>0.7514600893147606</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7861538461538462</v>
+        <v>0.796923076923077</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7537955147200645</v>
+        <v>0.7627493279954247</v>
       </c>
       <c r="E7" t="n">
         <v>650</v>

--- a/Wine_Quality/outputs/train_90_test_10/depth_4/wq_train_90_test_10_depth_4_report.xlsx
+++ b/Wine_Quality/outputs/train_90_test_10/depth_4/wq_train_90_test_10_depth_4_report.xlsx
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.64</v>
       </c>
       <c r="C2" t="n">
-        <v>0.359375</v>
+        <v>0.36</v>
       </c>
       <c r="D2" t="n">
         <v>0.46</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8166089965397924</v>
+        <v>0.82</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9477911646586346</v>
+        <v>0.95</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8773234200743495</v>
+        <v>0.88</v>
       </c>
       <c r="E4" t="n">
         <v>498</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.796923076923077</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.796923076923077</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.796923076923077</v>
+        <v>0.8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.796923076923077</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4851659618095605</v>
+        <v>0.49</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4357220548862115</v>
+        <v>0.44</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4457744733581165</v>
+        <v>0.45</v>
       </c>
       <c r="E6" t="n">
         <v>650</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7514600893147606</v>
+        <v>0.75</v>
       </c>
       <c r="C7" t="n">
-        <v>0.796923076923077</v>
+        <v>0.8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7627493279954247</v>
+        <v>0.76</v>
       </c>
       <c r="E7" t="n">
         <v>650</v>
